--- a/Textbooks, projects/Applied Math/labs/lab_5/var_9/lab_5_var_9.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_5/var_9/lab_5_var_9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE14463-CB7E-442B-9F6C-9193D5C44C2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D2E108-CF68-46EE-8938-1C09F2E1A412}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3664,8 +3664,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1070934" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3724,31 +3724,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=3,47</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>1</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>,8</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>3</m:t>
+                      <m:t>=3,47+1,83</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -3764,7 +3740,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3918,8 +3894,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1650516" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3978,19 +3954,7 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>=1,19+2</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>44</m:t>
+                      <m:t>=1,19+2,44</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -4037,7 +4001,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -4191,8 +4155,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="847411" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4292,7 +4256,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -4642,7 +4606,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
